--- a/Measurements/Capacitance/bby40Measurement.xlsx
+++ b/Measurements/Capacitance/bby40Measurement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\Capstone_Rohde-Schwarz_Team13\Measurements\Capacitance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7384F532-E73B-4911-8894-2CD5342F3DB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB245FB1-FFC1-4221-AC36-416839A88AAB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="-120" windowWidth="37590" windowHeight="16440" xr2:uid="{58422E9B-39CD-4184-8B40-DBDFB5000FDB}"/>
   </bookViews>
@@ -31,20 +31,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Vr</t>
   </si>
   <si>
     <t>Capacitance</t>
   </si>
+  <si>
+    <t>BBY40 Capacitance Vs. Reverse Voltage Measurements</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -72,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -112,11 +125,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -126,13 +138,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>BBY40 Capacitance (pF) Vs.</a:t>
+              <a:t>BBY40 Capacitance Vs. Reverse Voltage</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Reverse Voltage (V)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -149,11 +156,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -186,29 +192,99 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$12</c:f>
@@ -301,8 +377,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -322,9 +399,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -332,6 +410,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Reverse Voltage (Volts)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -340,9 +471,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -356,9 +486,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -384,9 +513,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -394,6 +524,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Capacitance (pF)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -402,9 +585,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -418,9 +600,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -449,11 +630,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -521,211 +705,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -736,78 +744,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -815,58 +752,337 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -878,27 +1094,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -906,9 +1121,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -918,14 +1132,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -937,12 +1150,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -951,14 +1163,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -967,9 +1180,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -979,17 +1191,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1001,37 +1214,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1040,16 +1246,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1385,10 +1591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B79AFFB-A1D5-47A2-BB48-089FF15FF6A5}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,23 +1602,27 @@
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>67.38</v>
       </c>
+      <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.57199999999999995</v>
       </c>
@@ -1420,7 +1630,7 @@
         <v>53.74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.131</v>
       </c>
@@ -1428,7 +1638,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.595</v>
       </c>
@@ -1436,7 +1646,7 @@
         <v>39.01</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.0499999999999998</v>
       </c>
@@ -1444,7 +1654,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.59</v>
       </c>
@@ -1452,7 +1662,7 @@
         <v>31.56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.04</v>
       </c>
@@ -1460,7 +1670,7 @@
         <v>29.24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.58</v>
       </c>
@@ -1468,7 +1678,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.08</v>
       </c>
@@ -1476,7 +1686,7 @@
         <v>24.73</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.59</v>
       </c>
@@ -1484,7 +1694,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5.01</v>
       </c>

--- a/Measurements/Capacitance/bby40Measurement.xlsx
+++ b/Measurements/Capacitance/bby40Measurement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\Capstone_Rohde-Schwarz_Team13\Measurements\Capacitance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB245FB1-FFC1-4221-AC36-416839A88AAB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{128D5262-B4E9-464F-9EBD-45A35317CDA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="-120" windowWidth="37590" windowHeight="16440" xr2:uid="{58422E9B-39CD-4184-8B40-DBDFB5000FDB}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1246,16 +1247,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1594,7 +1595,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Measurements/Capacitance/bby40Measurement.xlsx
+++ b/Measurements/Capacitance/bby40Measurement.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\Capstone_Rohde-Schwarz_Team13\Measurements\Capacitance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{128D5262-B4E9-464F-9EBD-45A35317CDA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2CEAC7-B699-4F74-A7B2-AFC06EF9D8FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="-120" windowWidth="37590" windowHeight="16440" xr2:uid="{58422E9B-39CD-4184-8B40-DBDFB5000FDB}"/>
+    <workbookView xWindow="38280" yWindow="-6810" windowWidth="16440" windowHeight="28440" xr2:uid="{58422E9B-39CD-4184-8B40-DBDFB5000FDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,9 +84,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -332,40 +332,40 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>67.38</c:v>
+                  <c:v>6.7380000000000004E-11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.74</c:v>
+                  <c:v>5.374E-11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.1</c:v>
+                  <c:v>4.4100000000000002E-11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.01</c:v>
+                  <c:v>3.9010000000000003E-11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.1</c:v>
+                  <c:v>3.51E-11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.56</c:v>
+                  <c:v>3.1559999999999999E-11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.24</c:v>
+                  <c:v>2.9240000000000001E-11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.74</c:v>
+                  <c:v>2.674E-11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.73</c:v>
+                  <c:v>2.4730000000000001E-11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.89</c:v>
+                  <c:v>2.2890000000000001E-11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.56</c:v>
+                  <c:v>2.1560000000000001E-11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -578,7 +578,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1594,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B79AFFB-A1D5-47A2-BB48-089FF15FF6A5}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,8 +1618,8 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>67.38</v>
+      <c r="B2" s="2">
+        <v>6.7380000000000004E-11</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -1627,87 +1627,88 @@
       <c r="A3">
         <v>0.57199999999999995</v>
       </c>
-      <c r="B3">
-        <v>53.74</v>
+      <c r="B3" s="2">
+        <v>5.374E-11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.131</v>
       </c>
-      <c r="B4">
-        <v>44.1</v>
+      <c r="B4" s="2">
+        <v>4.4100000000000002E-11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.595</v>
       </c>
-      <c r="B5">
-        <v>39.01</v>
+      <c r="B5" s="2">
+        <v>3.9010000000000003E-11</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.0499999999999998</v>
       </c>
-      <c r="B6">
-        <v>35.1</v>
+      <c r="B6" s="2">
+        <v>3.51E-11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.59</v>
       </c>
-      <c r="B7">
-        <v>31.56</v>
+      <c r="B7" s="2">
+        <v>3.1559999999999999E-11</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.04</v>
       </c>
-      <c r="B8">
-        <v>29.24</v>
+      <c r="B8" s="2">
+        <v>2.9240000000000001E-11</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.58</v>
       </c>
-      <c r="B9">
-        <v>26.74</v>
+      <c r="B9" s="2">
+        <v>2.674E-11</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.08</v>
       </c>
-      <c r="B10">
-        <v>24.73</v>
+      <c r="B10" s="2">
+        <v>2.4730000000000001E-11</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.59</v>
       </c>
-      <c r="B11">
-        <v>22.89</v>
+      <c r="B11" s="2">
+        <v>2.2890000000000001E-11</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5.01</v>
       </c>
-      <c r="B12">
-        <v>21.56</v>
+      <c r="B12" s="2">
+        <v>2.1560000000000001E-11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
